--- a/getMovieOnDouban/src/电影.xlsx
+++ b/getMovieOnDouban/src/电影.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="14775" windowHeight="6525"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="电影top250" sheetId="1" r:id="rId1"/>
+    <sheet name="电影top250" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t>肖申克的救赎</t>
   </si>
@@ -1261,6 +1261,9 @@
     <t>想你时你在闹海。</t>
   </si>
   <si>
+    <t>叫我第一名</t>
+  </si>
+  <si>
     <t>乐观比一切都有力量。</t>
   </si>
   <si>
@@ -1535,35 +1538,25 @@
   </si>
   <si>
     <t>琼瑶阿姨在韩国的深刻版。</t>
-  </si>
-  <si>
-    <t>叫我第一名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1579,16 +1572,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1876,19 +1868,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="4" max="4" width="71.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4136,194 +4127,194 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="C205" t="s">
         <v>177</v>
       </c>
       <c r="D205" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C206" t="s">
         <v>348</v>
       </c>
       <c r="D206" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C207" t="s">
         <v>297</v>
       </c>
       <c r="D207" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
       </c>
       <c r="D208" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C209" t="s">
         <v>297</v>
       </c>
       <c r="D209" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C210" t="s">
         <v>239</v>
       </c>
       <c r="D210" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C211" t="s">
         <v>297</v>
       </c>
       <c r="D211" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C212" t="s">
         <v>348</v>
       </c>
       <c r="D212" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C213" t="s">
         <v>177</v>
       </c>
       <c r="D213" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
       </c>
       <c r="D214" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C215" t="s">
         <v>297</v>
       </c>
       <c r="D215" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C216" t="s">
         <v>177</v>
       </c>
       <c r="D216" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C217" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D217" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
         <v>50</v>
       </c>
       <c r="D218" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
         <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C220" t="s">
         <v>348</v>
       </c>
       <c r="D220" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C221" t="s">
         <v>348</v>
       </c>
       <c r="D221" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C222" t="s">
         <v>239</v>
@@ -4334,315 +4325,313 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C223" t="s">
         <v>177</v>
       </c>
       <c r="D223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C224" t="s">
         <v>110</v>
       </c>
       <c r="D224" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C225" t="s">
         <v>239</v>
       </c>
       <c r="D225" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C226" t="s">
         <v>239</v>
       </c>
       <c r="D226" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C227" t="s">
         <v>297</v>
       </c>
       <c r="D227" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C228" t="s">
         <v>177</v>
       </c>
       <c r="D228" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C229" t="s">
         <v>348</v>
       </c>
       <c r="D229" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C230" t="s">
         <v>239</v>
       </c>
       <c r="D230" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C231" t="s">
         <v>177</v>
       </c>
       <c r="D231" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C232" t="s">
         <v>50</v>
       </c>
       <c r="D232" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C233" t="s">
         <v>110</v>
       </c>
       <c r="D233" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C234" t="s">
         <v>177</v>
       </c>
       <c r="D234" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C235" t="s">
         <v>297</v>
       </c>
       <c r="D235" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C236" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D236" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C237" t="s">
         <v>239</v>
       </c>
       <c r="D237" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C238" t="s">
         <v>110</v>
       </c>
       <c r="D238" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C239" t="s">
         <v>348</v>
       </c>
       <c r="D239" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C240" t="s">
         <v>239</v>
       </c>
       <c r="D240" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
       </c>
       <c r="D241" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C242" t="s">
         <v>93</v>
       </c>
       <c r="D242" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C243" t="s">
         <v>110</v>
       </c>
       <c r="D243" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C244" t="s">
         <v>348</v>
       </c>
       <c r="D244" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C245" t="s">
         <v>239</v>
       </c>
       <c r="D245" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C246" t="s">
         <v>297</v>
       </c>
       <c r="D246" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C247" t="s">
         <v>297</v>
       </c>
       <c r="D247" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C248" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C249" t="s">
         <v>239</v>
       </c>
       <c r="D249" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C250" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D250" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>